--- a/Test/Lawnmower/T2/Sensors_data_1000004.xlsx
+++ b/Test/Lawnmower/T2/Sensors_data_1000004.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -475,13 +475,13 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.9542314878468841</v>
+        <v>0.9458621932291591</v>
       </c>
       <c r="D2" t="n">
-        <v>0.001935560907158139</v>
+        <v>0.002212706029865301</v>
       </c>
       <c r="E2" t="n">
-        <v>0.01970463788789578</v>
+        <v>0.002939220843384382</v>
       </c>
       <c r="F2" t="n">
         <v>5</v>
@@ -500,13 +500,13 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>0.988870584762198</v>
+        <v>0.9529224327170855</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0003421879407444387</v>
+        <v>0.002272722568934621</v>
       </c>
       <c r="E3" t="n">
-        <v>0.3969777453402086</v>
+        <v>0.06031859105958742</v>
       </c>
       <c r="F3" t="n">
         <v>4</v>
@@ -525,18 +525,68 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>0.9955317174214472</v>
+        <v>0.9090277055942686</v>
       </c>
       <c r="D4" t="n">
-        <v>0.0002295595927977502</v>
+        <v>0.003009878187030474</v>
       </c>
       <c r="E4" t="n">
-        <v>0.03797081875217168</v>
+        <v>0.06894702543590858</v>
       </c>
       <c r="F4" t="n">
         <v>5</v>
       </c>
       <c r="G4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>s4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>0.9732928995135183</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.000824825352229948</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.4581531692120787</v>
+      </c>
+      <c r="F5" t="n">
+        <v>6</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>s5</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>0.9986910224557775</v>
+      </c>
+      <c r="D6" t="n">
+        <v>9.544623337586275e-05</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.007199549295636376</v>
+      </c>
+      <c r="F6" t="n">
+        <v>5</v>
+      </c>
+      <c r="G6" t="n">
         <v>0</v>
       </c>
     </row>
